--- a/Berichten.xlsx
+++ b/Berichten.xlsx
@@ -9,12 +9,13 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="26610" windowHeight="11985" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="26610" windowHeight="11985"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="Sheet4" sheetId="4" r:id="rId2"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId3"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId4"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -3095,11 +3096,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AKA9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A9" sqref="A9:XFD9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="38.42578125" customWidth="1"/>
+    <col min="2" max="2" width="39" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:963" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
@@ -6497,6 +6502,20 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:A1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E29"/>
   <sheetViews>
@@ -6917,11 +6936,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D41"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
